--- a/data/entertainment_data.xlsx
+++ b/data/entertainment_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>grade_score</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>rctu8d0c0pgc79t</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>w03eze9fg6d9qfs</t>
@@ -757,8 +754,8 @@
       <c r="E2" t="n">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -795,8 +792,8 @@
       <c r="E3" t="n">
         <v>114</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -819,7 +816,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -833,8 +830,8 @@
       <c r="E4" t="n">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -857,7 +854,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -871,8 +868,8 @@
       <c r="E5" t="n">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -909,8 +906,8 @@
       <c r="E6" t="n">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -947,8 +944,8 @@
       <c r="E7" t="n">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -971,7 +968,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -985,8 +982,8 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -1023,8 +1020,8 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1047,7 +1044,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -1061,8 +1058,8 @@
       <c r="E10" t="n">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1085,7 +1082,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -1099,8 +1096,8 @@
       <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -1137,8 +1134,8 @@
       <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -1175,8 +1172,8 @@
       <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1199,7 +1196,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -1213,8 +1210,8 @@
       <c r="E14" t="n">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -1251,8 +1248,8 @@
       <c r="E15" t="n">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1275,7 +1272,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -1289,8 +1286,8 @@
       <c r="E16" t="n">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -1327,8 +1324,8 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -1365,8 +1362,8 @@
       <c r="E18" t="n">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -1403,8 +1400,8 @@
       <c r="E19" t="n">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1427,7 +1424,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
         <v>6</v>
@@ -1441,8 +1438,8 @@
       <c r="E20" t="n">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1465,7 +1462,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
         <v>6</v>
@@ -1479,8 +1476,8 @@
       <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
@@ -1517,8 +1514,8 @@
       <c r="E22" t="n">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -1555,8 +1552,8 @@
       <c r="E23" t="n">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1579,7 +1576,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
         <v>6</v>
@@ -1593,8 +1590,8 @@
       <c r="E24" t="n">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -1631,8 +1628,8 @@
       <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -1669,8 +1666,8 @@
       <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -1707,8 +1704,8 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -1745,8 +1742,8 @@
       <c r="E28" t="n">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -1783,8 +1780,8 @@
       <c r="E29" t="n">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
         <v>6</v>
@@ -1821,8 +1818,8 @@
       <c r="E30" t="n">
         <v>44</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1845,7 +1842,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -1859,8 +1856,8 @@
       <c r="E31" t="n">
         <v>25</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
@@ -1897,8 +1894,8 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1921,7 +1918,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="n">
         <v>6</v>
@@ -1935,8 +1932,8 @@
       <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="n">
         <v>6</v>
@@ -1973,8 +1970,8 @@
       <c r="E34" t="n">
         <v>10</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="n">
         <v>6</v>
@@ -2011,8 +2008,8 @@
       <c r="E35" t="n">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="n">
         <v>6</v>
@@ -2049,8 +2046,8 @@
       <c r="E36" t="n">
         <v>26</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2073,7 +2070,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -2087,8 +2084,8 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>12</v>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="n">
         <v>6</v>
@@ -2125,8 +2122,8 @@
       <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="n">
         <v>6</v>
@@ -2163,8 +2160,8 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="n">
         <v>6</v>
@@ -2201,8 +2198,8 @@
       <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="n">
         <v>6</v>
@@ -2239,8 +2236,8 @@
       <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="n">
         <v>6</v>
@@ -2277,8 +2274,8 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="n">
         <v>6</v>
@@ -2315,8 +2312,8 @@
       <c r="E43" t="n">
         <v>10</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2339,7 +2336,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="n">
         <v>6</v>
@@ -2353,8 +2350,8 @@
       <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="n">
         <v>6</v>
@@ -2391,8 +2388,8 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="n">
         <v>6</v>
@@ -2429,8 +2426,8 @@
       <c r="E46" t="n">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2453,7 +2450,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="n">
         <v>6</v>
@@ -2467,8 +2464,8 @@
       <c r="E47" t="n">
         <v>4</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2491,7 +2488,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -2505,8 +2502,8 @@
       <c r="E48" t="n">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2529,7 +2526,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="n">
         <v>6</v>
@@ -2543,8 +2540,8 @@
       <c r="E49" t="n">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" t="n">
         <v>6</v>
@@ -2581,8 +2578,8 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
-        <v>12</v>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" t="n">
         <v>6</v>
@@ -2619,8 +2616,8 @@
       <c r="E51" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2643,7 +2640,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" t="n">
         <v>6</v>
@@ -2657,8 +2654,8 @@
       <c r="E52" t="n">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" t="n">
         <v>6</v>
@@ -2695,8 +2692,8 @@
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2719,7 +2716,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="n">
         <v>6</v>
@@ -2733,8 +2730,8 @@
       <c r="E54" t="n">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
-        <v>12</v>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2757,7 +2754,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
@@ -2771,8 +2768,8 @@
       <c r="E55" t="n">
         <v>42</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="n">
         <v>6</v>
@@ -2809,8 +2806,8 @@
       <c r="E56" t="n">
         <v>27</v>
       </c>
-      <c r="F56" t="s">
-        <v>12</v>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="n">
         <v>6</v>
@@ -2847,8 +2844,8 @@
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2871,7 +2868,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="n">
         <v>6</v>
@@ -2885,8 +2882,8 @@
       <c r="E58" t="n">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
-        <v>12</v>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2909,7 +2906,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
         <v>6</v>
@@ -2923,8 +2920,8 @@
       <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
-        <v>12</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2947,7 +2944,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="n">
         <v>6</v>
@@ -2961,8 +2958,8 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
@@ -2999,8 +2996,8 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="n">
         <v>6</v>
@@ -3037,8 +3034,8 @@
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="n">
         <v>6</v>
@@ -3075,8 +3072,8 @@
       <c r="E63" t="n">
         <v>7</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="n">
         <v>6</v>
@@ -3113,8 +3110,8 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>12</v>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="n">
         <v>6</v>
@@ -3151,8 +3148,8 @@
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3175,7 +3172,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="n">
         <v>6</v>
@@ -3189,8 +3186,8 @@
       <c r="E66" t="n">
         <v>4</v>
       </c>
-      <c r="F66" t="s">
-        <v>12</v>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3213,7 +3210,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="n">
         <v>6</v>
@@ -3227,8 +3224,8 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="n">
         <v>6</v>
@@ -3265,8 +3262,8 @@
       <c r="E68" t="n">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
-        <v>12</v>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="n">
         <v>6</v>
@@ -3303,8 +3300,8 @@
       <c r="E69" t="n">
         <v>54</v>
       </c>
-      <c r="F69" t="s">
-        <v>12</v>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="n">
         <v>6</v>
@@ -3341,8 +3338,8 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
-        <v>12</v>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="n">
         <v>6</v>
@@ -3379,8 +3376,8 @@
       <c r="E71" t="n">
         <v>11</v>
       </c>
-      <c r="F71" t="s">
-        <v>12</v>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3403,7 +3400,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="n">
         <v>6</v>
@@ -3417,8 +3414,8 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3441,7 +3438,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" t="n">
         <v>6</v>
@@ -3455,8 +3452,8 @@
       <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="s">
-        <v>12</v>
+      <c r="F73" t="n">
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="n">
         <v>6</v>
@@ -3493,8 +3490,8 @@
       <c r="E74" t="n">
         <v>7</v>
       </c>
-      <c r="F74" t="s">
-        <v>12</v>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
         <v>6</v>
@@ -3531,8 +3528,8 @@
       <c r="E75" t="n">
         <v>5</v>
       </c>
-      <c r="F75" t="s">
-        <v>12</v>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3555,7 +3552,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
         <v>6</v>
@@ -3569,8 +3566,8 @@
       <c r="E76" t="n">
         <v>4</v>
       </c>
-      <c r="F76" t="s">
-        <v>12</v>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3593,7 +3590,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
         <v>6</v>
@@ -3607,8 +3604,8 @@
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" t="n">
         <v>6</v>
@@ -3645,8 +3642,8 @@
       <c r="E78" t="n">
         <v>8</v>
       </c>
-      <c r="F78" t="s">
-        <v>12</v>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" t="n">
         <v>6</v>
@@ -3683,8 +3680,8 @@
       <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="n">
         <v>6</v>
@@ -3721,8 +3718,8 @@
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" t="s">
-        <v>12</v>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" t="n">
         <v>6</v>
@@ -3759,8 +3756,8 @@
       <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" t="s">
-        <v>12</v>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="n">
         <v>6</v>
@@ -3797,8 +3794,8 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
-        <v>12</v>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" t="n">
         <v>6</v>
@@ -3835,8 +3832,8 @@
       <c r="E83" t="n">
         <v>1</v>
       </c>
-      <c r="F83" t="s">
-        <v>12</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3859,7 +3856,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" t="n">
         <v>6</v>
@@ -3873,8 +3870,8 @@
       <c r="E84" t="n">
         <v>2</v>
       </c>
-      <c r="F84" t="s">
-        <v>12</v>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3897,7 +3894,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
@@ -3911,8 +3908,8 @@
       <c r="E85" t="n">
         <v>2</v>
       </c>
-      <c r="F85" t="s">
-        <v>12</v>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3935,7 +3932,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="n">
         <v>6</v>
@@ -3949,8 +3946,8 @@
       <c r="E86" t="n">
         <v>2</v>
       </c>
-      <c r="F86" t="s">
-        <v>12</v>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="n">
         <v>6</v>
@@ -3987,8 +3984,8 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
-        <v>12</v>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="n">
         <v>6</v>
@@ -4025,8 +4022,8 @@
       <c r="E88" t="n">
         <v>17</v>
       </c>
-      <c r="F88" t="s">
-        <v>12</v>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" t="n">
         <v>6</v>
@@ -4063,8 +4060,8 @@
       <c r="E89" t="n">
         <v>8</v>
       </c>
-      <c r="F89" t="s">
-        <v>12</v>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4087,7 +4084,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="n">
         <v>6</v>
@@ -4101,8 +4098,8 @@
       <c r="E90" t="n">
         <v>10</v>
       </c>
-      <c r="F90" t="s">
-        <v>12</v>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4125,7 +4122,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" t="n">
         <v>6</v>
@@ -4139,8 +4136,8 @@
       <c r="E91" t="n">
         <v>22</v>
       </c>
-      <c r="F91" t="s">
-        <v>12</v>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="n">
         <v>6</v>
@@ -4177,8 +4174,8 @@
       <c r="E92" t="n">
         <v>3</v>
       </c>
-      <c r="F92" t="s">
-        <v>12</v>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4201,7 +4198,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="n">
         <v>6</v>
@@ -4215,8 +4212,8 @@
       <c r="E93" t="n">
         <v>47</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4239,7 +4236,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" t="n">
         <v>6</v>
@@ -4253,8 +4250,8 @@
       <c r="E94" t="n">
         <v>5</v>
       </c>
-      <c r="F94" t="s">
-        <v>12</v>
+      <c r="F94" t="n">
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="n">
         <v>6</v>
@@ -4291,8 +4288,8 @@
       <c r="E95" t="n">
         <v>28</v>
       </c>
-      <c r="F95" t="s">
-        <v>12</v>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" t="n">
         <v>6</v>
@@ -4329,8 +4326,8 @@
       <c r="E96" t="n">
         <v>10</v>
       </c>
-      <c r="F96" t="s">
-        <v>12</v>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4353,7 +4350,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
@@ -4367,8 +4364,8 @@
       <c r="E97" t="n">
         <v>27</v>
       </c>
-      <c r="F97" t="s">
-        <v>12</v>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4391,7 +4388,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="n">
         <v>6</v>
@@ -4405,8 +4402,8 @@
       <c r="E98" t="n">
         <v>4</v>
       </c>
-      <c r="F98" t="s">
-        <v>12</v>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4429,7 +4426,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="n">
         <v>6</v>
@@ -4443,8 +4440,8 @@
       <c r="E99" t="n">
         <v>3</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4467,7 +4464,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" t="n">
         <v>6</v>
@@ -4481,8 +4478,8 @@
       <c r="E100" t="n">
         <v>13</v>
       </c>
-      <c r="F100" t="s">
-        <v>12</v>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" t="n">
         <v>6</v>
@@ -4519,8 +4516,8 @@
       <c r="E101" t="n">
         <v>6</v>
       </c>
-      <c r="F101" t="s">
-        <v>12</v>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
